--- a/Planilha de risco/Planilha de risco.xlsx
+++ b/Planilha de risco/Planilha de risco.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHOS-4\Planilha de risco\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE0E537-DCB8-4611-808F-56F0C304AAA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -56,9 +65,6 @@
     <t>Evitar</t>
   </si>
   <si>
-    <t>Falha na entrega do projeto</t>
-  </si>
-  <si>
     <t>Alto(3)(I)</t>
   </si>
   <si>
@@ -92,17 +98,56 @@
     <t>Falha na execução do site</t>
   </si>
   <si>
-    <t>Falha na comunicação entre a API e o BD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falha na busca dos dados existentes na nuvem </t>
+    <t>O que fazer?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redistribuir as funções </t>
+  </si>
+  <si>
+    <t>Prevenção</t>
+  </si>
+  <si>
+    <t>Reiniciar o PC</t>
+  </si>
+  <si>
+    <t>Arrumar os devidos conectores ou o código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se reagrupar de alguma forma ou fazer uma reunião </t>
+  </si>
+  <si>
+    <t>Dialogo e colaboração entre o intregantes</t>
+  </si>
+  <si>
+    <t>Respeito e dinamicas</t>
+  </si>
+  <si>
+    <t>Revisão e manutenção provisória</t>
+  </si>
+  <si>
+    <t>Troca dos sensores</t>
+  </si>
+  <si>
+    <t>Revisar as inserções no Banco de Dados</t>
+  </si>
+  <si>
+    <t>Ter um backup disponivel e executá-lo novamente</t>
+  </si>
+  <si>
+    <t>Revisar os códigos e servidores semanalmente</t>
+  </si>
+  <si>
+    <t>Revisar a ligação entre lamada e sensor?</t>
+  </si>
+  <si>
+    <t>Encerrar e revisar o código</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +168,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +214,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -225,19 +284,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -381,65 +427,98 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -448,111 +527,163 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -827,11 +958,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:O23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="E3:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,15 +974,16 @@
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
     <col min="13" max="13" width="20.42578125" customWidth="1"/>
     <col min="14" max="14" width="17.85546875" customWidth="1"/>
     <col min="15" max="15" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -874,287 +1006,301 @@
       <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E5" s="4">
+      <c r="K4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="5:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="E5" s="28">
         <v>1</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="30">
         <v>2</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="31">
         <v>2</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="31">
+        <f>G5*H5</f>
         <v>4</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E6" s="11">
+      <c r="K5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="5:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="E6" s="24">
         <v>2</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="26">
         <v>2</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="5">
         <v>3</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="20">
+        <f t="shared" ref="I6:I9" si="0">G6*H6</f>
         <v>6</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="5:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="E7" s="24">
+        <v>3</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="26">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E7" s="11">
+      <c r="K7" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="5:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="E8" s="24">
+        <v>4</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1</v>
+      </c>
+      <c r="H8" s="34">
         <v>3</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="12">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="I8" s="20">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I7" s="13">
-        <v>3</v>
-      </c>
-      <c r="J7" s="15" t="s">
+      <c r="J8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E8" s="11">
-        <v>4</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="12">
-        <v>2</v>
-      </c>
-      <c r="H8" s="13">
-        <v>3</v>
-      </c>
-      <c r="I8" s="13">
-        <v>5</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="K8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E9" s="11">
+    <row r="9" spans="5:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="E9" s="35">
         <v>5</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="26">
         <v>1</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="5">
         <v>3</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="20">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E10" s="4">
+      <c r="K9" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="E10" s="24">
         <v>6</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="F10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="19">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3</v>
+      </c>
+      <c r="I10" s="20">
+        <f>G10*H10</f>
+        <v>6</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="24">
+        <v>7</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="26">
+        <v>2</v>
+      </c>
+      <c r="H11" s="34">
+        <v>3</v>
+      </c>
+      <c r="I11" s="20">
+        <f>G11*H11</f>
+        <v>6</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E12" s="23"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="17" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="14">
+        <v>3</v>
+      </c>
+      <c r="H18" s="13">
+        <v>6</v>
+      </c>
+      <c r="I18" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>4</v>
+      </c>
+      <c r="I19" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="43">
         <v>1</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="8">
         <v>3</v>
       </c>
-      <c r="I10" s="29">
-        <v>3</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E11" s="11">
-        <v>7</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="12">
-        <v>2</v>
-      </c>
-      <c r="H11" s="13">
-        <v>3</v>
-      </c>
-      <c r="I11" s="29">
-        <v>5</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E12" s="11">
-        <v>8</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="28">
-        <v>2</v>
-      </c>
-      <c r="H12" s="13">
-        <v>3</v>
-      </c>
-      <c r="I12" s="29">
-        <v>5</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E13" s="11">
-        <v>9</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="12">
-        <v>2</v>
-      </c>
-      <c r="H13" s="29">
-        <v>3</v>
-      </c>
-      <c r="I13" s="29">
-        <v>5</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="34">
-        <v>10</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="35">
-        <v>1</v>
-      </c>
-      <c r="H14" s="36">
-        <v>3</v>
-      </c>
-      <c r="I14" s="36">
-        <v>3</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="5:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="19" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="24">
-        <v>3</v>
-      </c>
-      <c r="I20" s="23">
-        <v>6</v>
-      </c>
-      <c r="J20" s="22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="8">
-        <v>2</v>
-      </c>
-      <c r="I21" s="9">
-        <v>4</v>
-      </c>
-      <c r="J21" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="3" t="s">
+    </row>
+    <row r="21" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="9"/>
+      <c r="G21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="16">
-        <v>1</v>
-      </c>
-      <c r="I22" s="17">
-        <v>2</v>
-      </c>
-      <c r="J22" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G23" s="19"/>
-      <c r="H23" s="20" t="s">
+      <c r="H21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="20" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I5:I11">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:H11">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>